--- a/raw_game_pulls/6197050_Play-By-Play for Tulane vs Bradley.xlsx
+++ b/raw_game_pulls/6197050_Play-By-Play for Tulane vs Bradley.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3639C38-7C0B-410E-92AD-361DD77F10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="427">
   <si>
     <t>Period</t>
   </si>
@@ -1300,8 +1306,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,13 +1370,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1408,7 +1422,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1442,6 +1456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1476,9 +1491,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1651,14 +1667,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E521"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B123" sqref="A123:XFD123"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1760,7 +1778,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1777,7 +1795,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1811,7 +1829,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1828,7 +1846,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1862,7 +1880,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1896,7 +1914,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1947,7 +1965,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1964,7 +1982,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1981,7 +1999,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1998,7 +2016,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2015,7 +2033,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2032,7 +2050,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2066,7 +2084,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2100,7 +2118,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2151,7 +2169,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2168,7 +2186,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2185,7 +2203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2219,7 +2237,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2304,7 +2322,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2321,7 +2339,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2355,7 +2373,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2372,7 +2390,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2389,7 +2407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2457,7 +2475,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2508,7 +2526,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2525,7 +2543,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2644,7 +2662,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2695,7 +2713,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2712,7 +2730,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2763,7 +2781,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2780,7 +2798,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2797,7 +2815,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2814,7 +2832,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2831,7 +2849,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2848,7 +2866,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2865,7 +2883,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2899,7 +2917,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2916,7 +2934,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2950,7 +2968,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2984,7 +3002,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3052,7 +3070,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3069,7 +3087,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3103,7 +3121,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3120,7 +3138,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3137,7 +3155,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3188,7 +3206,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3222,7 +3240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3256,7 +3274,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3273,7 +3291,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3307,7 +3325,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3341,7 +3359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3358,7 +3376,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3375,7 +3393,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3477,7 +3495,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3528,7 +3546,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3545,7 +3563,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3562,7 +3580,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3579,7 +3597,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3613,7 +3631,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3630,7 +3648,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3664,7 +3682,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3681,7 +3699,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3715,7 +3733,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3732,29 +3750,29 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123">
         <v>17</v>
       </c>
       <c r="D123">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E123" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C124">
         <v>17</v>
@@ -3763,10 +3781,10 @@
         <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3780,10 +3798,10 @@
         <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3797,10 +3815,10 @@
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3814,15 +3832,15 @@
         <v>20</v>
       </c>
       <c r="E127" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128">
         <v>17</v>
@@ -3831,10 +3849,10 @@
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3848,10 +3866,10 @@
         <v>20</v>
       </c>
       <c r="E129" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3865,10 +3883,10 @@
         <v>20</v>
       </c>
       <c r="E130" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3882,10 +3900,10 @@
         <v>20</v>
       </c>
       <c r="E131" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3899,10 +3917,10 @@
         <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3916,10 +3934,10 @@
         <v>20</v>
       </c>
       <c r="E133" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3933,10 +3951,10 @@
         <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3950,10 +3968,10 @@
         <v>20</v>
       </c>
       <c r="E135" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3967,10 +3985,10 @@
         <v>20</v>
       </c>
       <c r="E136" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3984,10 +4002,10 @@
         <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4001,15 +4019,15 @@
         <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C139">
         <v>17</v>
@@ -4018,10 +4036,10 @@
         <v>20</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4035,10 +4053,10 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4052,49 +4070,49 @@
         <v>20</v>
       </c>
       <c r="E141" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C142">
         <v>17</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E142" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C143">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D143">
         <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C144">
         <v>19</v>
@@ -4103,15 +4121,15 @@
         <v>22</v>
       </c>
       <c r="E144" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C145">
         <v>19</v>
@@ -4120,15 +4138,15 @@
         <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C146">
         <v>19</v>
@@ -4137,15 +4155,15 @@
         <v>22</v>
       </c>
       <c r="E146" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C147">
         <v>19</v>
@@ -4154,15 +4172,15 @@
         <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C148">
         <v>19</v>
@@ -4171,15 +4189,15 @@
         <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C149">
         <v>19</v>
@@ -4188,10 +4206,10 @@
         <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4199,21 +4217,21 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D150">
         <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C151">
         <v>21</v>
@@ -4222,15 +4240,15 @@
         <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C152">
         <v>21</v>
@@ -4239,10 +4257,10 @@
         <v>22</v>
       </c>
       <c r="E152" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4256,10 +4274,10 @@
         <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4273,10 +4291,10 @@
         <v>22</v>
       </c>
       <c r="E154" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4290,10 +4308,10 @@
         <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4307,10 +4325,10 @@
         <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4324,10 +4342,10 @@
         <v>22</v>
       </c>
       <c r="E157" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4341,10 +4359,10 @@
         <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4358,10 +4376,10 @@
         <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4372,18 +4390,18 @@
         <v>21</v>
       </c>
       <c r="D160">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E160" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C161">
         <v>21</v>
@@ -4392,15 +4410,15 @@
         <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C162">
         <v>21</v>
@@ -4409,15 +4427,15 @@
         <v>23</v>
       </c>
       <c r="E162" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C163">
         <v>21</v>
@@ -4426,15 +4444,15 @@
         <v>23</v>
       </c>
       <c r="E163" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C164">
         <v>21</v>
@@ -4443,15 +4461,15 @@
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C165">
         <v>21</v>
@@ -4460,15 +4478,15 @@
         <v>23</v>
       </c>
       <c r="E165" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C166">
         <v>21</v>
@@ -4477,27 +4495,27 @@
         <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C167">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D167">
         <v>23</v>
       </c>
       <c r="E167" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4511,15 +4529,15 @@
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C169">
         <v>23</v>
@@ -4528,10 +4546,10 @@
         <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4542,13 +4560,13 @@
         <v>23</v>
       </c>
       <c r="D170">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4562,10 +4580,10 @@
         <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4579,10 +4597,10 @@
         <v>24</v>
       </c>
       <c r="E172" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4596,10 +4614,10 @@
         <v>24</v>
       </c>
       <c r="E173" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4613,10 +4631,10 @@
         <v>24</v>
       </c>
       <c r="E174" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4630,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="E175" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4647,10 +4665,10 @@
         <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4664,10 +4682,10 @@
         <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4681,10 +4699,10 @@
         <v>24</v>
       </c>
       <c r="E178" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4695,18 +4713,18 @@
         <v>23</v>
       </c>
       <c r="D179">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E179" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C180">
         <v>23</v>
@@ -4715,10 +4733,10 @@
         <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4732,15 +4750,15 @@
         <v>25</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C182">
         <v>23</v>
@@ -4749,10 +4767,10 @@
         <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4766,10 +4784,10 @@
         <v>25</v>
       </c>
       <c r="E183" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4783,10 +4801,10 @@
         <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4797,18 +4815,18 @@
         <v>23</v>
       </c>
       <c r="D185">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E185" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C186">
         <v>23</v>
@@ -4817,10 +4835,10 @@
         <v>26</v>
       </c>
       <c r="E186" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4834,27 +4852,27 @@
         <v>26</v>
       </c>
       <c r="E187" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C188">
         <v>23</v>
       </c>
       <c r="D188">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4868,10 +4886,10 @@
         <v>28</v>
       </c>
       <c r="E189" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4885,10 +4903,10 @@
         <v>28</v>
       </c>
       <c r="E190" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4902,10 +4920,10 @@
         <v>28</v>
       </c>
       <c r="E191" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4916,18 +4934,18 @@
         <v>23</v>
       </c>
       <c r="D192">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E192" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C193">
         <v>23</v>
@@ -4936,10 +4954,10 @@
         <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4953,32 +4971,32 @@
         <v>29</v>
       </c>
       <c r="E194" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C195">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D195">
         <v>29</v>
       </c>
       <c r="E195" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C196">
         <v>25</v>
@@ -4987,27 +5005,27 @@
         <v>29</v>
       </c>
       <c r="E196" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C197">
         <v>25</v>
       </c>
       <c r="D197">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5018,13 +5036,13 @@
         <v>25</v>
       </c>
       <c r="D198">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E198" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5038,10 +5056,10 @@
         <v>31</v>
       </c>
       <c r="E199" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5055,27 +5073,27 @@
         <v>31</v>
       </c>
       <c r="E200" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C201">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D201">
         <v>31</v>
       </c>
       <c r="E201" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5089,15 +5107,15 @@
         <v>31</v>
       </c>
       <c r="E202" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C203">
         <v>28</v>
@@ -5106,15 +5124,15 @@
         <v>31</v>
       </c>
       <c r="E203" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C204">
         <v>28</v>
@@ -5123,10 +5141,10 @@
         <v>31</v>
       </c>
       <c r="E204" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5140,10 +5158,10 @@
         <v>31</v>
       </c>
       <c r="E205" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5157,10 +5175,10 @@
         <v>31</v>
       </c>
       <c r="E206" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5174,10 +5192,10 @@
         <v>31</v>
       </c>
       <c r="E207" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5191,10 +5209,10 @@
         <v>31</v>
       </c>
       <c r="E208" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5208,10 +5226,10 @@
         <v>31</v>
       </c>
       <c r="E209" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5225,10 +5243,10 @@
         <v>31</v>
       </c>
       <c r="E210" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5242,10 +5260,10 @@
         <v>31</v>
       </c>
       <c r="E211" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5259,10 +5277,10 @@
         <v>31</v>
       </c>
       <c r="E212" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5270,16 +5288,16 @@
         <v>96</v>
       </c>
       <c r="C213">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D213">
         <v>31</v>
       </c>
       <c r="E213" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5287,7 +5305,7 @@
         <v>96</v>
       </c>
       <c r="C214">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D214">
         <v>31</v>
@@ -5296,12 +5314,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C215">
         <v>30</v>
@@ -5310,15 +5328,15 @@
         <v>31</v>
       </c>
       <c r="E215" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C216">
         <v>30</v>
@@ -5327,15 +5345,15 @@
         <v>31</v>
       </c>
       <c r="E216" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C217">
         <v>30</v>
@@ -5344,10 +5362,10 @@
         <v>31</v>
       </c>
       <c r="E217" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5355,16 +5373,16 @@
         <v>99</v>
       </c>
       <c r="C218">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D218">
         <v>31</v>
       </c>
       <c r="E218" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5378,10 +5396,10 @@
         <v>31</v>
       </c>
       <c r="E219" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5395,10 +5413,10 @@
         <v>31</v>
       </c>
       <c r="E220" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5412,10 +5430,10 @@
         <v>31</v>
       </c>
       <c r="E221" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5429,27 +5447,27 @@
         <v>31</v>
       </c>
       <c r="E222" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C223">
         <v>31</v>
       </c>
       <c r="D223">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E223" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5463,32 +5481,32 @@
         <v>33</v>
       </c>
       <c r="E224" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C225">
         <v>31</v>
       </c>
       <c r="D225">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E225" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C226">
         <v>31</v>
@@ -5497,10 +5515,10 @@
         <v>34</v>
       </c>
       <c r="E226" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5514,15 +5532,15 @@
         <v>34</v>
       </c>
       <c r="E227" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C228">
         <v>31</v>
@@ -5531,15 +5549,15 @@
         <v>34</v>
       </c>
       <c r="E228" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C229">
         <v>31</v>
@@ -5548,10 +5566,10 @@
         <v>34</v>
       </c>
       <c r="E229" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5559,16 +5577,16 @@
         <v>104</v>
       </c>
       <c r="C230">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D230">
         <v>34</v>
       </c>
       <c r="E230" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5582,10 +5600,10 @@
         <v>34</v>
       </c>
       <c r="E231" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5593,16 +5611,16 @@
         <v>104</v>
       </c>
       <c r="C232">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D232">
         <v>34</v>
       </c>
       <c r="E232" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5616,10 +5634,10 @@
         <v>34</v>
       </c>
       <c r="E233" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5633,10 +5651,10 @@
         <v>34</v>
       </c>
       <c r="E234" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5650,15 +5668,15 @@
         <v>34</v>
       </c>
       <c r="E235" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C236">
         <v>33</v>
@@ -5667,32 +5685,32 @@
         <v>34</v>
       </c>
       <c r="E236" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C237">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D237">
         <v>34</v>
       </c>
       <c r="E237" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C238">
         <v>38</v>
@@ -5701,15 +5719,15 @@
         <v>34</v>
       </c>
       <c r="E238" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C239">
         <v>38</v>
@@ -5718,15 +5736,15 @@
         <v>34</v>
       </c>
       <c r="E239" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C240">
         <v>38</v>
@@ -5735,10 +5753,10 @@
         <v>34</v>
       </c>
       <c r="E240" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5752,32 +5770,32 @@
         <v>34</v>
       </c>
       <c r="E241" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C242">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D242">
         <v>34</v>
       </c>
       <c r="E242" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C243">
         <v>40</v>
@@ -5786,15 +5804,15 @@
         <v>34</v>
       </c>
       <c r="E243" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C244">
         <v>40</v>
@@ -5803,15 +5821,15 @@
         <v>34</v>
       </c>
       <c r="E244" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C245">
         <v>40</v>
@@ -5820,10 +5838,10 @@
         <v>34</v>
       </c>
       <c r="E245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5834,13 +5852,13 @@
         <v>40</v>
       </c>
       <c r="D246">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E246" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5854,10 +5872,10 @@
         <v>35</v>
       </c>
       <c r="E247" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5871,10 +5889,10 @@
         <v>35</v>
       </c>
       <c r="E248" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5888,10 +5906,10 @@
         <v>35</v>
       </c>
       <c r="E249" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5905,10 +5923,10 @@
         <v>35</v>
       </c>
       <c r="E250" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5922,10 +5940,10 @@
         <v>35</v>
       </c>
       <c r="E251" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5936,13 +5954,13 @@
         <v>40</v>
       </c>
       <c r="D252">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E252" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5956,15 +5974,15 @@
         <v>36</v>
       </c>
       <c r="E253" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C254">
         <v>40</v>
@@ -5973,15 +5991,15 @@
         <v>36</v>
       </c>
       <c r="E254" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C255">
         <v>40</v>
@@ -5990,15 +6008,15 @@
         <v>36</v>
       </c>
       <c r="E255" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B256" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C256">
         <v>40</v>
@@ -6007,10 +6025,10 @@
         <v>36</v>
       </c>
       <c r="E256" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6024,10 +6042,10 @@
         <v>36</v>
       </c>
       <c r="E257" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6041,10 +6059,10 @@
         <v>36</v>
       </c>
       <c r="E258" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6058,15 +6076,15 @@
         <v>36</v>
       </c>
       <c r="E259" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
       <c r="B260" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C260">
         <v>40</v>
@@ -6075,15 +6093,15 @@
         <v>36</v>
       </c>
       <c r="E260" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C261">
         <v>40</v>
@@ -6092,27 +6110,27 @@
         <v>36</v>
       </c>
       <c r="E261" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C262">
         <v>40</v>
       </c>
       <c r="D262">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E262" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6126,15 +6144,15 @@
         <v>38</v>
       </c>
       <c r="E263" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C264">
         <v>40</v>
@@ -6143,10 +6161,10 @@
         <v>38</v>
       </c>
       <c r="E264" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6160,15 +6178,15 @@
         <v>38</v>
       </c>
       <c r="E265" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C266">
         <v>40</v>
@@ -6177,15 +6195,15 @@
         <v>38</v>
       </c>
       <c r="E266" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
       <c r="B267" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C267">
         <v>40</v>
@@ -6194,27 +6212,27 @@
         <v>38</v>
       </c>
       <c r="E267" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
       <c r="B268" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C268">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D268">
         <v>38</v>
       </c>
       <c r="E268" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6228,10 +6246,10 @@
         <v>38</v>
       </c>
       <c r="E269" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6245,10 +6263,10 @@
         <v>38</v>
       </c>
       <c r="E270" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6262,15 +6280,15 @@
         <v>38</v>
       </c>
       <c r="E271" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
       <c r="B272" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C272">
         <v>42</v>
@@ -6279,10 +6297,10 @@
         <v>38</v>
       </c>
       <c r="E272" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6293,13 +6311,13 @@
         <v>42</v>
       </c>
       <c r="D273">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E273" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6313,10 +6331,10 @@
         <v>39</v>
       </c>
       <c r="E274" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6330,10 +6348,10 @@
         <v>39</v>
       </c>
       <c r="E275" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6344,18 +6362,18 @@
         <v>42</v>
       </c>
       <c r="D276">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E276" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
       <c r="B277" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="C277">
         <v>42</v>
@@ -6364,10 +6382,10 @@
         <v>40</v>
       </c>
       <c r="E277" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6381,32 +6399,32 @@
         <v>40</v>
       </c>
       <c r="E278" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="C279">
         <v>42</v>
       </c>
       <c r="D279">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E279" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
       <c r="B280" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C280">
         <v>42</v>
@@ -6415,15 +6433,15 @@
         <v>42</v>
       </c>
       <c r="E280" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C281">
         <v>42</v>
@@ -6432,15 +6450,15 @@
         <v>42</v>
       </c>
       <c r="E281" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C282">
         <v>42</v>
@@ -6449,15 +6467,15 @@
         <v>42</v>
       </c>
       <c r="E282" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
       <c r="B283" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C283">
         <v>42</v>
@@ -6466,15 +6484,15 @@
         <v>42</v>
       </c>
       <c r="E283" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C284">
         <v>42</v>
@@ -6483,10 +6501,10 @@
         <v>42</v>
       </c>
       <c r="E284" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6494,16 +6512,16 @@
         <v>130</v>
       </c>
       <c r="C285">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D285">
         <v>42</v>
       </c>
       <c r="E285" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6517,10 +6535,10 @@
         <v>42</v>
       </c>
       <c r="E286" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6534,10 +6552,10 @@
         <v>42</v>
       </c>
       <c r="E287" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6545,33 +6563,33 @@
         <v>130</v>
       </c>
       <c r="C288">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D288">
         <v>42</v>
       </c>
       <c r="E288" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
       <c r="B289" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C289">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D289">
         <v>42</v>
       </c>
       <c r="E289" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6585,32 +6603,32 @@
         <v>42</v>
       </c>
       <c r="E290" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
       <c r="B291" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C291">
         <v>47</v>
       </c>
       <c r="D291">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E291" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C292">
         <v>47</v>
@@ -6619,15 +6637,15 @@
         <v>44</v>
       </c>
       <c r="E292" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C293">
         <v>47</v>
@@ -6636,27 +6654,27 @@
         <v>44</v>
       </c>
       <c r="E293" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C294">
         <v>47</v>
       </c>
       <c r="D294">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E294" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6670,10 +6688,10 @@
         <v>46</v>
       </c>
       <c r="E295" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6687,10 +6705,10 @@
         <v>46</v>
       </c>
       <c r="E296" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6704,10 +6722,10 @@
         <v>46</v>
       </c>
       <c r="E297" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6718,13 +6736,13 @@
         <v>47</v>
       </c>
       <c r="D298">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E298" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6738,10 +6756,10 @@
         <v>47</v>
       </c>
       <c r="E299" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6755,15 +6773,15 @@
         <v>47</v>
       </c>
       <c r="E300" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
       <c r="B301" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C301">
         <v>47</v>
@@ -6772,15 +6790,15 @@
         <v>47</v>
       </c>
       <c r="E301" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
       <c r="B302" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C302">
         <v>47</v>
@@ -6789,15 +6807,15 @@
         <v>47</v>
       </c>
       <c r="E302" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C303">
         <v>47</v>
@@ -6806,10 +6824,10 @@
         <v>47</v>
       </c>
       <c r="E303" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6823,44 +6841,44 @@
         <v>47</v>
       </c>
       <c r="E304" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C305">
         <v>47</v>
       </c>
       <c r="D305">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E305" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C306">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D306">
         <v>49</v>
       </c>
       <c r="E306" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6874,27 +6892,27 @@
         <v>49</v>
       </c>
       <c r="E307" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
       <c r="B308" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C308">
         <v>50</v>
       </c>
       <c r="D308">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E308" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6908,15 +6926,15 @@
         <v>52</v>
       </c>
       <c r="E309" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
       <c r="B310" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C310">
         <v>50</v>
@@ -6925,15 +6943,15 @@
         <v>52</v>
       </c>
       <c r="E310" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
       <c r="B311" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C311">
         <v>50</v>
@@ -6942,15 +6960,15 @@
         <v>52</v>
       </c>
       <c r="E311" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
       <c r="B312" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C312">
         <v>50</v>
@@ -6959,10 +6977,10 @@
         <v>52</v>
       </c>
       <c r="E312" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6976,27 +6994,27 @@
         <v>52</v>
       </c>
       <c r="E313" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C314">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D314">
         <v>52</v>
       </c>
       <c r="E314" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7010,27 +7028,27 @@
         <v>52</v>
       </c>
       <c r="E315" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C316">
         <v>52</v>
       </c>
       <c r="D316">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E316" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7044,15 +7062,15 @@
         <v>54</v>
       </c>
       <c r="E317" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C318">
         <v>52</v>
@@ -7061,10 +7079,10 @@
         <v>54</v>
       </c>
       <c r="E318" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7078,15 +7096,15 @@
         <v>54</v>
       </c>
       <c r="E319" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
       <c r="B320" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C320">
         <v>52</v>
@@ -7095,15 +7113,15 @@
         <v>54</v>
       </c>
       <c r="E320" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="C321">
         <v>52</v>
@@ -7112,15 +7130,15 @@
         <v>54</v>
       </c>
       <c r="E321" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
       <c r="B322" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C322">
         <v>52</v>
@@ -7129,10 +7147,10 @@
         <v>54</v>
       </c>
       <c r="E322" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7146,15 +7164,15 @@
         <v>54</v>
       </c>
       <c r="E323" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="C324">
         <v>52</v>
@@ -7163,15 +7181,15 @@
         <v>54</v>
       </c>
       <c r="E324" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
       <c r="B325" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C325">
         <v>52</v>
@@ -7180,15 +7198,15 @@
         <v>54</v>
       </c>
       <c r="E325" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
       <c r="B326" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C326">
         <v>52</v>
@@ -7197,15 +7215,15 @@
         <v>54</v>
       </c>
       <c r="E326" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
       <c r="B327" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C327">
         <v>52</v>
@@ -7214,15 +7232,15 @@
         <v>54</v>
       </c>
       <c r="E327" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
       <c r="B328" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="C328">
         <v>52</v>
@@ -7231,10 +7249,10 @@
         <v>54</v>
       </c>
       <c r="E328" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7248,15 +7266,15 @@
         <v>54</v>
       </c>
       <c r="E329" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
       <c r="B330" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="C330">
         <v>52</v>
@@ -7265,10 +7283,10 @@
         <v>54</v>
       </c>
       <c r="E330" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7282,27 +7300,27 @@
         <v>54</v>
       </c>
       <c r="E331" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C332">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D332">
         <v>54</v>
       </c>
       <c r="E332" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7316,15 +7334,15 @@
         <v>54</v>
       </c>
       <c r="E333" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
       <c r="B334" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C334">
         <v>55</v>
@@ -7333,10 +7351,10 @@
         <v>54</v>
       </c>
       <c r="E334" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7350,10 +7368,10 @@
         <v>54</v>
       </c>
       <c r="E335" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7367,10 +7385,10 @@
         <v>54</v>
       </c>
       <c r="E336" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7384,10 +7402,10 @@
         <v>54</v>
       </c>
       <c r="E337" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7401,32 +7419,32 @@
         <v>54</v>
       </c>
       <c r="E338" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
       <c r="B339" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C339">
         <v>55</v>
       </c>
       <c r="D339">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E339" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
       <c r="B340" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C340">
         <v>55</v>
@@ -7435,15 +7453,15 @@
         <v>56</v>
       </c>
       <c r="E340" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
       <c r="B341" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C341">
         <v>55</v>
@@ -7452,10 +7470,10 @@
         <v>56</v>
       </c>
       <c r="E341" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7469,10 +7487,10 @@
         <v>56</v>
       </c>
       <c r="E342" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7486,10 +7504,10 @@
         <v>56</v>
       </c>
       <c r="E343" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7503,27 +7521,27 @@
         <v>56</v>
       </c>
       <c r="E344" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
       <c r="B345" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C345">
         <v>55</v>
       </c>
       <c r="D345">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E345" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7537,32 +7555,32 @@
         <v>58</v>
       </c>
       <c r="E346" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
       <c r="B347" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C347">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D347">
         <v>58</v>
       </c>
       <c r="E347" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
       <c r="B348" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C348">
         <v>58</v>
@@ -7571,10 +7589,10 @@
         <v>58</v>
       </c>
       <c r="E348" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7588,10 +7606,10 @@
         <v>58</v>
       </c>
       <c r="E349" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7605,10 +7623,10 @@
         <v>58</v>
       </c>
       <c r="E350" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7622,10 +7640,10 @@
         <v>58</v>
       </c>
       <c r="E351" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7639,10 +7657,10 @@
         <v>58</v>
       </c>
       <c r="E352" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7656,10 +7674,10 @@
         <v>58</v>
       </c>
       <c r="E353" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7673,10 +7691,10 @@
         <v>58</v>
       </c>
       <c r="E354" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7687,18 +7705,18 @@
         <v>58</v>
       </c>
       <c r="D355">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E355" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
       <c r="B356" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C356">
         <v>58</v>
@@ -7707,15 +7725,15 @@
         <v>59</v>
       </c>
       <c r="E356" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
       <c r="B357" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C357">
         <v>58</v>
@@ -7724,32 +7742,32 @@
         <v>59</v>
       </c>
       <c r="E357" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
       <c r="B358" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C358">
         <v>58</v>
       </c>
       <c r="D358">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E358" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
       <c r="B359" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C359">
         <v>58</v>
@@ -7758,10 +7776,10 @@
         <v>61</v>
       </c>
       <c r="E359" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7775,10 +7793,10 @@
         <v>61</v>
       </c>
       <c r="E360" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7792,10 +7810,10 @@
         <v>61</v>
       </c>
       <c r="E361" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7809,10 +7827,10 @@
         <v>61</v>
       </c>
       <c r="E362" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7826,15 +7844,15 @@
         <v>61</v>
       </c>
       <c r="E363" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C364">
         <v>58</v>
@@ -7843,15 +7861,15 @@
         <v>61</v>
       </c>
       <c r="E364" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
       <c r="B365" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C365">
         <v>58</v>
@@ -7860,32 +7878,32 @@
         <v>61</v>
       </c>
       <c r="E365" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
       <c r="B366" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C366">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D366">
         <v>61</v>
       </c>
       <c r="E366" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
       <c r="B367" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C367">
         <v>60</v>
@@ -7894,15 +7912,15 @@
         <v>61</v>
       </c>
       <c r="E367" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
       <c r="B368" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C368">
         <v>60</v>
@@ -7911,32 +7929,32 @@
         <v>61</v>
       </c>
       <c r="E368" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
       <c r="B369" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C369">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D369">
         <v>61</v>
       </c>
       <c r="E369" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
       <c r="B370" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C370">
         <v>62</v>
@@ -7945,15 +7963,15 @@
         <v>61</v>
       </c>
       <c r="E370" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
       <c r="B371" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C371">
         <v>62</v>
@@ -7962,27 +7980,27 @@
         <v>61</v>
       </c>
       <c r="E371" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
       <c r="B372" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C372">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D372">
         <v>61</v>
       </c>
       <c r="E372" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -7996,15 +8014,15 @@
         <v>61</v>
       </c>
       <c r="E373" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
       <c r="B374" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C374">
         <v>64</v>
@@ -8013,10 +8031,10 @@
         <v>61</v>
       </c>
       <c r="E374" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8030,10 +8048,10 @@
         <v>61</v>
       </c>
       <c r="E375" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8047,10 +8065,10 @@
         <v>61</v>
       </c>
       <c r="E376" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8064,15 +8082,15 @@
         <v>61</v>
       </c>
       <c r="E377" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
       <c r="B378" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C378">
         <v>64</v>
@@ -8081,15 +8099,15 @@
         <v>61</v>
       </c>
       <c r="E378" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
       <c r="B379" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C379">
         <v>64</v>
@@ -8098,15 +8116,15 @@
         <v>61</v>
       </c>
       <c r="E379" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
       <c r="B380" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C380">
         <v>64</v>
@@ -8115,10 +8133,10 @@
         <v>61</v>
       </c>
       <c r="E380" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8132,15 +8150,15 @@
         <v>61</v>
       </c>
       <c r="E381" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
       <c r="B382" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C382">
         <v>64</v>
@@ -8149,15 +8167,15 @@
         <v>61</v>
       </c>
       <c r="E382" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
       <c r="B383" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C383">
         <v>64</v>
@@ -8166,15 +8184,15 @@
         <v>61</v>
       </c>
       <c r="E383" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
       <c r="B384" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C384">
         <v>64</v>
@@ -8183,10 +8201,10 @@
         <v>61</v>
       </c>
       <c r="E384" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8200,15 +8218,15 @@
         <v>61</v>
       </c>
       <c r="E385" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
       <c r="B386" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C386">
         <v>64</v>
@@ -8217,15 +8235,15 @@
         <v>61</v>
       </c>
       <c r="E386" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
       <c r="B387" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C387">
         <v>64</v>
@@ -8234,10 +8252,10 @@
         <v>61</v>
       </c>
       <c r="E387" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8251,10 +8269,10 @@
         <v>61</v>
       </c>
       <c r="E388" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8268,10 +8286,10 @@
         <v>61</v>
       </c>
       <c r="E389" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8285,10 +8303,10 @@
         <v>61</v>
       </c>
       <c r="E390" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8302,10 +8320,10 @@
         <v>61</v>
       </c>
       <c r="E391" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8319,10 +8337,10 @@
         <v>61</v>
       </c>
       <c r="E392" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8336,10 +8354,10 @@
         <v>61</v>
       </c>
       <c r="E393" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8353,10 +8371,10 @@
         <v>61</v>
       </c>
       <c r="E394" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8370,10 +8388,10 @@
         <v>61</v>
       </c>
       <c r="E395" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8387,15 +8405,15 @@
         <v>61</v>
       </c>
       <c r="E396" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
       <c r="B397" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C397">
         <v>64</v>
@@ -8404,27 +8422,27 @@
         <v>61</v>
       </c>
       <c r="E397" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
       <c r="B398" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C398">
         <v>64</v>
       </c>
       <c r="D398">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E398" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8438,10 +8456,10 @@
         <v>62</v>
       </c>
       <c r="E399" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8455,10 +8473,10 @@
         <v>62</v>
       </c>
       <c r="E400" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8472,10 +8490,10 @@
         <v>62</v>
       </c>
       <c r="E401" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8489,10 +8507,10 @@
         <v>62</v>
       </c>
       <c r="E402" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8506,10 +8524,10 @@
         <v>62</v>
       </c>
       <c r="E403" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8523,15 +8541,15 @@
         <v>62</v>
       </c>
       <c r="E404" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
       <c r="B405" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C405">
         <v>64</v>
@@ -8540,15 +8558,15 @@
         <v>62</v>
       </c>
       <c r="E405" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
       <c r="B406" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C406">
         <v>64</v>
@@ -8557,15 +8575,15 @@
         <v>62</v>
       </c>
       <c r="E406" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
       <c r="B407" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C407">
         <v>64</v>
@@ -8574,10 +8592,10 @@
         <v>62</v>
       </c>
       <c r="E407" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8585,16 +8603,16 @@
         <v>188</v>
       </c>
       <c r="C408">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D408">
         <v>62</v>
       </c>
       <c r="E408" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8602,7 +8620,7 @@
         <v>188</v>
       </c>
       <c r="C409">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D409">
         <v>62</v>
@@ -8611,12 +8629,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
       <c r="B410" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C410">
         <v>66</v>
@@ -8625,10 +8643,10 @@
         <v>62</v>
       </c>
       <c r="E410" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8642,10 +8660,10 @@
         <v>62</v>
       </c>
       <c r="E411" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8659,10 +8677,10 @@
         <v>62</v>
       </c>
       <c r="E412" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8676,10 +8694,10 @@
         <v>62</v>
       </c>
       <c r="E413" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8693,15 +8711,15 @@
         <v>62</v>
       </c>
       <c r="E414" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
       <c r="B415" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C415">
         <v>66</v>
@@ -8710,15 +8728,15 @@
         <v>62</v>
       </c>
       <c r="E415" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
       <c r="B416" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C416">
         <v>66</v>
@@ -8727,10 +8745,10 @@
         <v>62</v>
       </c>
       <c r="E416" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8744,10 +8762,10 @@
         <v>62</v>
       </c>
       <c r="E417" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8761,10 +8779,10 @@
         <v>62</v>
       </c>
       <c r="E418" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8778,27 +8796,27 @@
         <v>62</v>
       </c>
       <c r="E419" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
       <c r="B420" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C420">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D420">
         <v>62</v>
       </c>
       <c r="E420" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8812,15 +8830,15 @@
         <v>62</v>
       </c>
       <c r="E421" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
       <c r="B422" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C422">
         <v>69</v>
@@ -8829,10 +8847,10 @@
         <v>62</v>
       </c>
       <c r="E422" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8846,32 +8864,32 @@
         <v>62</v>
       </c>
       <c r="E423" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
       <c r="B424" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C424">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D424">
         <v>62</v>
       </c>
       <c r="E424" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
       <c r="B425" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C425">
         <v>72</v>
@@ -8880,10 +8898,10 @@
         <v>62</v>
       </c>
       <c r="E425" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8897,10 +8915,10 @@
         <v>62</v>
       </c>
       <c r="E426" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8914,10 +8932,10 @@
         <v>62</v>
       </c>
       <c r="E427" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8931,10 +8949,10 @@
         <v>62</v>
       </c>
       <c r="E428" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8948,10 +8966,10 @@
         <v>62</v>
       </c>
       <c r="E429" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8962,13 +8980,13 @@
         <v>72</v>
       </c>
       <c r="D430">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E430" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -8979,18 +8997,18 @@
         <v>72</v>
       </c>
       <c r="D431">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E431" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
       <c r="B432" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C432">
         <v>72</v>
@@ -8999,15 +9017,15 @@
         <v>64</v>
       </c>
       <c r="E432" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
       <c r="B433" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C433">
         <v>72</v>
@@ -9016,15 +9034,15 @@
         <v>64</v>
       </c>
       <c r="E433" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
       <c r="B434" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C434">
         <v>72</v>
@@ -9033,10 +9051,10 @@
         <v>64</v>
       </c>
       <c r="E434" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9050,15 +9068,15 @@
         <v>64</v>
       </c>
       <c r="E435" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
       <c r="B436" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C436">
         <v>72</v>
@@ -9067,15 +9085,15 @@
         <v>64</v>
       </c>
       <c r="E436" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
       <c r="B437" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C437">
         <v>72</v>
@@ -9084,10 +9102,10 @@
         <v>64</v>
       </c>
       <c r="E437" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9095,21 +9113,21 @@
         <v>200</v>
       </c>
       <c r="C438">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D438">
         <v>64</v>
       </c>
       <c r="E438" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
       <c r="B439" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C439">
         <v>74</v>
@@ -9118,10 +9136,10 @@
         <v>64</v>
       </c>
       <c r="E439" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9135,15 +9153,15 @@
         <v>64</v>
       </c>
       <c r="E440" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
       <c r="B441" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C441">
         <v>74</v>
@@ -9152,10 +9170,10 @@
         <v>64</v>
       </c>
       <c r="E441" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9163,16 +9181,16 @@
         <v>202</v>
       </c>
       <c r="C442">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D442">
         <v>64</v>
       </c>
       <c r="E442" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9186,10 +9204,10 @@
         <v>64</v>
       </c>
       <c r="E443" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9203,10 +9221,10 @@
         <v>64</v>
       </c>
       <c r="E444" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9220,15 +9238,15 @@
         <v>64</v>
       </c>
       <c r="E445" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
       <c r="B446" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C446">
         <v>75</v>
@@ -9237,27 +9255,27 @@
         <v>64</v>
       </c>
       <c r="E446" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
       <c r="B447" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C447">
         <v>75</v>
       </c>
       <c r="D447">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E447" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9271,10 +9289,10 @@
         <v>66</v>
       </c>
       <c r="E448" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9288,10 +9306,10 @@
         <v>66</v>
       </c>
       <c r="E449" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9302,18 +9320,18 @@
         <v>75</v>
       </c>
       <c r="D450">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E450" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
       <c r="B451" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C451">
         <v>75</v>
@@ -9322,15 +9340,15 @@
         <v>67</v>
       </c>
       <c r="E451" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
       <c r="B452" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C452">
         <v>75</v>
@@ -9339,15 +9357,15 @@
         <v>67</v>
       </c>
       <c r="E452" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
       <c r="B453" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C453">
         <v>75</v>
@@ -9356,10 +9374,10 @@
         <v>67</v>
       </c>
       <c r="E453" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9373,10 +9391,10 @@
         <v>67</v>
       </c>
       <c r="E454" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9390,10 +9408,10 @@
         <v>67</v>
       </c>
       <c r="E455" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9407,10 +9425,10 @@
         <v>67</v>
       </c>
       <c r="E456" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9424,10 +9442,10 @@
         <v>67</v>
       </c>
       <c r="E457" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9441,10 +9459,10 @@
         <v>67</v>
       </c>
       <c r="E458" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9455,13 +9473,13 @@
         <v>75</v>
       </c>
       <c r="D459">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E459" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9472,18 +9490,18 @@
         <v>75</v>
       </c>
       <c r="D460">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E460" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
       <c r="B461" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C461">
         <v>75</v>
@@ -9492,27 +9510,27 @@
         <v>69</v>
       </c>
       <c r="E461" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
       <c r="B462" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C462">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D462">
         <v>69</v>
       </c>
       <c r="E462" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9526,10 +9544,10 @@
         <v>69</v>
       </c>
       <c r="E463" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9543,10 +9561,10 @@
         <v>69</v>
       </c>
       <c r="E464" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9554,16 +9572,16 @@
         <v>209</v>
       </c>
       <c r="C465">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D465">
         <v>69</v>
       </c>
       <c r="E465" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9577,27 +9595,27 @@
         <v>69</v>
       </c>
       <c r="E466" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
       <c r="B467" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C467">
         <v>77</v>
       </c>
       <c r="D467">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E467" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9611,10 +9629,10 @@
         <v>71</v>
       </c>
       <c r="E468" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9628,15 +9646,15 @@
         <v>71</v>
       </c>
       <c r="E469" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
       <c r="B470" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C470">
         <v>77</v>
@@ -9645,15 +9663,15 @@
         <v>71</v>
       </c>
       <c r="E470" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
       <c r="B471" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C471">
         <v>77</v>
@@ -9662,10 +9680,10 @@
         <v>71</v>
       </c>
       <c r="E471" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9679,10 +9697,10 @@
         <v>71</v>
       </c>
       <c r="E472" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9690,16 +9708,16 @@
         <v>212</v>
       </c>
       <c r="C473">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D473">
         <v>71</v>
       </c>
       <c r="E473" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9713,15 +9731,15 @@
         <v>71</v>
       </c>
       <c r="E474" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
       <c r="B475" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C475">
         <v>78</v>
@@ -9730,15 +9748,15 @@
         <v>71</v>
       </c>
       <c r="E475" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
       <c r="B476" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C476">
         <v>78</v>
@@ -9747,10 +9765,10 @@
         <v>71</v>
       </c>
       <c r="E476" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9764,15 +9782,15 @@
         <v>71</v>
       </c>
       <c r="E477" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
       <c r="B478" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C478">
         <v>78</v>
@@ -9781,15 +9799,15 @@
         <v>71</v>
       </c>
       <c r="E478" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
       <c r="B479" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C479">
         <v>78</v>
@@ -9798,10 +9816,10 @@
         <v>71</v>
       </c>
       <c r="E479" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9815,27 +9833,27 @@
         <v>71</v>
       </c>
       <c r="E480" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
       <c r="B481" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="C481">
         <v>78</v>
       </c>
       <c r="D481">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E481" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9849,15 +9867,15 @@
         <v>73</v>
       </c>
       <c r="E482" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
       <c r="B483" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C483">
         <v>78</v>
@@ -9866,10 +9884,10 @@
         <v>73</v>
       </c>
       <c r="E483" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9883,10 +9901,10 @@
         <v>73</v>
       </c>
       <c r="E484" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9900,15 +9918,15 @@
         <v>73</v>
       </c>
       <c r="E485" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
       <c r="B486" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="C486">
         <v>78</v>
@@ -9917,10 +9935,10 @@
         <v>73</v>
       </c>
       <c r="E486" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9934,15 +9952,15 @@
         <v>73</v>
       </c>
       <c r="E487" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
       <c r="B488" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="C488">
         <v>78</v>
@@ -9951,15 +9969,15 @@
         <v>73</v>
       </c>
       <c r="E488" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
       <c r="B489" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C489">
         <v>78</v>
@@ -9968,10 +9986,10 @@
         <v>73</v>
       </c>
       <c r="E489" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -9985,15 +10003,15 @@
         <v>73</v>
       </c>
       <c r="E490" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
       <c r="B491" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C491">
         <v>78</v>
@@ -10002,10 +10020,10 @@
         <v>73</v>
       </c>
       <c r="E491" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10016,13 +10034,13 @@
         <v>78</v>
       </c>
       <c r="D492">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E492" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10036,10 +10054,10 @@
         <v>74</v>
       </c>
       <c r="E493" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10053,10 +10071,10 @@
         <v>74</v>
       </c>
       <c r="E494" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10067,18 +10085,18 @@
         <v>78</v>
       </c>
       <c r="D495">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E495" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
       <c r="B496" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C496">
         <v>78</v>
@@ -10087,10 +10105,10 @@
         <v>75</v>
       </c>
       <c r="E496" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10098,16 +10116,16 @@
         <v>221</v>
       </c>
       <c r="C497">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D497">
         <v>75</v>
       </c>
       <c r="E497" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10121,10 +10139,10 @@
         <v>75</v>
       </c>
       <c r="E498" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10138,10 +10156,10 @@
         <v>75</v>
       </c>
       <c r="E499" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10155,10 +10173,10 @@
         <v>75</v>
       </c>
       <c r="E500" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10172,10 +10190,10 @@
         <v>75</v>
       </c>
       <c r="E501" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10183,21 +10201,21 @@
         <v>221</v>
       </c>
       <c r="C502">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D502">
         <v>75</v>
       </c>
       <c r="E502" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
       <c r="B503" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C503">
         <v>80</v>
@@ -10206,15 +10224,15 @@
         <v>75</v>
       </c>
       <c r="E503" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
       <c r="B504" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C504">
         <v>80</v>
@@ -10223,15 +10241,15 @@
         <v>75</v>
       </c>
       <c r="E504" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
       <c r="B505" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C505">
         <v>80</v>
@@ -10240,10 +10258,10 @@
         <v>75</v>
       </c>
       <c r="E505" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10257,10 +10275,10 @@
         <v>75</v>
       </c>
       <c r="E506" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10274,10 +10292,10 @@
         <v>75</v>
       </c>
       <c r="E507" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10288,13 +10306,13 @@
         <v>80</v>
       </c>
       <c r="D508">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E508" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10305,18 +10323,18 @@
         <v>80</v>
       </c>
       <c r="D509">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E509" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
       <c r="B510" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C510">
         <v>80</v>
@@ -10325,10 +10343,10 @@
         <v>77</v>
       </c>
       <c r="E510" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10342,10 +10360,10 @@
         <v>77</v>
       </c>
       <c r="E511" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10359,10 +10377,10 @@
         <v>77</v>
       </c>
       <c r="E512" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10376,10 +10394,10 @@
         <v>77</v>
       </c>
       <c r="E513" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10393,10 +10411,10 @@
         <v>77</v>
       </c>
       <c r="E514" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10410,15 +10428,15 @@
         <v>77</v>
       </c>
       <c r="E515" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
       <c r="B516" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="C516">
         <v>80</v>
@@ -10427,15 +10445,15 @@
         <v>77</v>
       </c>
       <c r="E516" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
       <c r="B517" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="C517">
         <v>80</v>
@@ -10444,15 +10462,15 @@
         <v>77</v>
       </c>
       <c r="E517" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
       <c r="B518" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C518">
         <v>80</v>
@@ -10461,15 +10479,15 @@
         <v>77</v>
       </c>
       <c r="E518" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
       <c r="B519" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="C519">
         <v>80</v>
@@ -10478,15 +10496,15 @@
         <v>77</v>
       </c>
       <c r="E519" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
       <c r="B520" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C520">
         <v>80</v>
@@ -10495,23 +10513,6 @@
         <v>77</v>
       </c>
       <c r="E520" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
-      <c r="A521">
-        <v>2</v>
-      </c>
-      <c r="B521" t="s">
-        <v>115</v>
-      </c>
-      <c r="C521">
-        <v>80</v>
-      </c>
-      <c r="D521">
-        <v>77</v>
-      </c>
-      <c r="E521" t="s">
         <v>345</v>
       </c>
     </row>
